--- a/archivos/Informacion Trama.xlsx
+++ b/archivos/Informacion Trama.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PycharmProjects\TramasNexus\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7744C2-5BF5-425D-8F7F-153D9871A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCC78BE-664E-42AB-BEFA-1CC56DB40C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$157</definedName>
@@ -39,8 +40,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Usuario</author>
+  </authors>
+  <commentList>
+    <comment ref="I43" authorId="0" shapeId="0" xr:uid="{E37086F6-14F4-4D35-BA62-F63C463B1F07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Usuario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+id 216</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="350">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1229,9 +1264,6 @@
     </r>
   </si>
   <si>
-    <t>Nombre del Estado, Departamento o Provincia donde se encuentra ubicada la Terminal POS / ATM.</t>
-  </si>
-  <si>
     <t>MASTERCARD, DE 61, subfield 4 (POS Cardholder Presence), desde ISO8583 ó su equivalente - Valor "R": Recurring transactions. VISA: DE126.13 – POS Environment, desde ISO8583 ó su equivalente ó su equivalente. - Valor: "R": Indicates that the cardholder and merchant have agreed to periodic billing for goods and services, such as utility bills and magazines. En [Campo 87607] se deja el valor "R". Si el valor no es "R", para VISA o MASTERCARD, dejar en espacios. (Alineacion:  IZQ y espacios DER)</t>
   </si>
   <si>
@@ -1930,9 +1962,6 @@
     <t>"ByteF". FIX</t>
   </si>
   <si>
-    <t>"000002" SI (Campo "PMFD - Tipo MSJ" = '0220' o '0120') Si no '000001'</t>
-  </si>
-  <si>
     <t>Primeros 8 Dígitos del campo "PMFD - Numero de tarjeta encriptado AES"</t>
   </si>
   <si>
@@ -1951,9 +1980,6 @@
     <t>("G", "D", "F", "P")</t>
   </si>
   <si>
-    <t>("1", " ")</t>
-  </si>
-  <si>
     <t>No puede contener ("ByteIN", "ByteF")</t>
   </si>
   <si>
@@ -1972,9 +1998,6 @@
     <t>("620", "700", "710", "720", "750")</t>
   </si>
   <si>
-    <t>("De", "Cr")</t>
-  </si>
-  <si>
     <t>("ATM", "POS")</t>
   </si>
   <si>
@@ -1988,13 +2011,49 @@
   </si>
   <si>
     <t>("  ")</t>
+  </si>
+  <si>
+    <t>SI [Campo "PMFD - Tipo MSJ"] = '0400' or '0420' THEN  'S' ELSE 'N'</t>
+  </si>
+  <si>
+    <t>SI [Campo "PMFD - Tipo MSJ"] = '0220' or '0120' THEN '000002' ELSE '000001'</t>
+  </si>
+  <si>
+    <t>("R ", "  ")</t>
+  </si>
+  <si>
+    <t>igual a campo 24</t>
+  </si>
+  <si>
+    <t>Listadod e errores</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>("De", "Cr", "Pp")</t>
+  </si>
+  <si>
+    <t>("1  ", "   ")</t>
+  </si>
+  <si>
+    <t>620: IFD; RISK, 700: Monitor Interactivo; 710: Alerta Manual; 720: Modificación Caso; 750: PMFD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2109,8 +2168,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2138,12 +2210,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,7 +2576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2599,9 +2665,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2671,16 +2734,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2692,7 +2755,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2719,14 +2782,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2747,7 +2810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2756,7 +2819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2765,16 +2828,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2783,25 +2846,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2810,16 +2873,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2828,7 +2891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,7 +2900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2846,13 +2909,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2867,7 +2930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2876,14 +2939,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2897,12 +2958,37 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -2927,7 +3013,42 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -2979,35 +3100,22 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
       </font>
     </dxf>
     <dxf>
@@ -3023,53 +3131,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
       </font>
     </dxf>
   </dxfs>
@@ -3347,11 +3408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3364,11 +3425,11 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="75" customWidth="1"/>
-    <col min="10" max="10" width="68.5703125" style="71" customWidth="1"/>
-    <col min="11" max="11" width="0.28515625" style="71" customWidth="1"/>
-    <col min="12" max="12" width="80.7109375" style="121" customWidth="1"/>
-    <col min="13" max="13" width="61.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="74" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" style="70" customWidth="1"/>
+    <col min="11" max="11" width="0.28515625" style="70" customWidth="1"/>
+    <col min="12" max="12" width="64.85546875" style="120" customWidth="1"/>
+    <col min="13" max="13" width="61.7109375" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3400,7 +3461,7 @@
       <c r="J1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="2" t="s">
         <v>176</v>
       </c>
@@ -3433,17 +3494,17 @@
       <c r="H2" s="11">
         <v>0</v>
       </c>
-      <c r="I2" s="123">
+      <c r="I2" s="22">
         <v>214</v>
       </c>
-      <c r="J2" s="77" t="s">
-        <v>339</v>
-      </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="78" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3467,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="16">
-        <f>G2+F2</f>
+        <f>G2+F2+H3</f>
         <v>7</v>
       </c>
       <c r="H3" s="17">
@@ -3476,12 +3537,12 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="81" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3505,23 +3566,23 @@
         <v>5</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G67" si="0">G3+F3</f>
+        <f t="shared" ref="G4:G67" si="0">G3+F3+H4</f>
         <v>19</v>
       </c>
       <c r="H4" s="17">
         <v>0</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="24">
         <v>213</v>
       </c>
-      <c r="J4" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82" t="s">
+      <c r="J4" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="81" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3551,21 +3612,21 @@
       <c r="H5" s="17">
         <v>0</v>
       </c>
-      <c r="I5" s="122">
+      <c r="I5" s="24">
         <v>215</v>
       </c>
-      <c r="J5" s="80" t="s">
-        <v>341</v>
-      </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82" t="s">
+      <c r="J5" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="M5" s="81" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -3591,17 +3652,17 @@
       <c r="H6" s="21">
         <v>0</v>
       </c>
-      <c r="I6" s="124">
-        <v>91</v>
-      </c>
-      <c r="J6" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85" t="s">
+      <c r="I6" s="121">
+        <v>51</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="85" t="s">
+      <c r="M6" s="84" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3634,14 +3695,14 @@
       <c r="I7" s="22">
         <v>21</v>
       </c>
-      <c r="J7" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79" t="s">
+      <c r="J7" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="M7" s="79" t="s">
+      <c r="M7" s="78" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3674,12 +3735,12 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82" t="s">
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="85" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3712,12 +3773,12 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82" t="s">
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="81" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3750,14 +3811,14 @@
       <c r="I10" s="24">
         <v>22</v>
       </c>
-      <c r="J10" s="80" t="s">
-        <v>331</v>
-      </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82" t="s">
+      <c r="J10" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="87" t="s">
+      <c r="M10" s="86" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3790,14 +3851,14 @@
       <c r="I11" s="24">
         <v>31</v>
       </c>
-      <c r="J11" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82" t="s">
+      <c r="J11" s="79" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="81" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3822,7 +3883,7 @@
       </c>
       <c r="G12" s="16">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H12" s="17">
         <v>2</v>
@@ -3830,12 +3891,12 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82" t="s">
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="81" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3860,7 +3921,7 @@
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H13" s="17">
         <v>2</v>
@@ -3868,12 +3929,12 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82" t="s">
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="82" t="s">
+      <c r="M13" s="81" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3898,7 +3959,7 @@
       </c>
       <c r="G14" s="16">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H14" s="17">
         <v>2</v>
@@ -3906,12 +3967,12 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82" t="s">
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="M14" s="82" t="s">
+      <c r="M14" s="81" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3936,7 +3997,7 @@
       </c>
       <c r="G15" s="16">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H15" s="17">
         <v>0</v>
@@ -3944,12 +4005,12 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82" t="s">
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="M15" s="82" t="s">
+      <c r="M15" s="81" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3974,7 +4035,7 @@
       </c>
       <c r="G16" s="16">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H16" s="17">
         <v>3</v>
@@ -3982,12 +4043,12 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82" t="s">
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="82" t="s">
+      <c r="M16" s="81" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4012,7 +4073,7 @@
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H17" s="17">
         <v>0</v>
@@ -4020,12 +4081,12 @@
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82" t="s">
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="M17" s="82" t="s">
+      <c r="M17" s="81" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4050,7 +4111,7 @@
       </c>
       <c r="G18" s="16">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H18" s="17">
         <v>0</v>
@@ -4058,12 +4119,12 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82" t="s">
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="M18" s="88" t="s">
+      <c r="M18" s="87" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4088,7 +4149,7 @@
       </c>
       <c r="G19" s="16">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H19" s="17">
         <v>0</v>
@@ -4096,12 +4157,12 @@
       <c r="I19" s="3">
         <v>0</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="82" t="s">
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="M19" s="88" t="s">
+      <c r="M19" s="87" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4126,7 +4187,7 @@
       </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H20" s="29">
         <v>0</v>
@@ -4134,12 +4195,12 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91" t="s">
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="M20" s="91" t="s">
+      <c r="M20" s="90" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4164,7 +4225,7 @@
       </c>
       <c r="G21" s="16">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H21" s="29">
         <v>0</v>
@@ -4172,12 +4233,12 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91" t="s">
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M21" s="81" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4202,7 +4263,7 @@
       </c>
       <c r="G22" s="16">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H22" s="29">
         <v>0</v>
@@ -4210,12 +4271,12 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="91" t="s">
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="M22" s="91" t="s">
+      <c r="M22" s="90" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4240,7 +4301,7 @@
       </c>
       <c r="G23" s="16">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H23" s="29">
         <v>0</v>
@@ -4248,12 +4309,12 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="91" t="s">
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="M23" s="91" t="s">
+      <c r="M23" s="90" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4278,7 +4339,7 @@
       </c>
       <c r="G24" s="16">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="H24" s="29">
         <v>0</v>
@@ -4286,12 +4347,12 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="91" t="s">
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="M24" s="91" t="s">
+      <c r="M24" s="90" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4316,7 +4377,7 @@
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H25" s="29">
         <v>0</v>
@@ -4324,12 +4385,12 @@
       <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="91" t="s">
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="M25" s="91" t="s">
+      <c r="M25" s="90" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4354,7 +4415,7 @@
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H26" s="29">
         <v>0</v>
@@ -4362,12 +4423,12 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91" t="s">
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="M26" s="91" t="s">
+      <c r="M26" s="90" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4392,7 +4453,7 @@
       </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H27" s="29">
         <v>0</v>
@@ -4400,12 +4461,12 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="91" t="s">
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="M27" s="91" t="s">
+      <c r="M27" s="90" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4430,7 +4491,7 @@
       </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H28" s="29">
         <v>0</v>
@@ -4438,12 +4499,12 @@
       <c r="I28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="91" t="s">
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="M28" s="91" t="s">
+      <c r="M28" s="90" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4468,7 +4529,7 @@
       </c>
       <c r="G29" s="16">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H29" s="29">
         <v>0</v>
@@ -4476,12 +4537,12 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91" t="s">
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="M29" s="92" t="s">
+      <c r="M29" s="91" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4506,7 +4567,7 @@
       </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H30" s="29">
         <v>0</v>
@@ -4514,12 +4575,12 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91" t="s">
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="M30" s="86" t="s">
+      <c r="M30" s="85" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4544,7 +4605,7 @@
       </c>
       <c r="G31" s="16">
         <f t="shared" si="0"/>
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H31" s="29">
         <v>0</v>
@@ -4552,12 +4613,12 @@
       <c r="I31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="93"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91" t="s">
+      <c r="J31" s="92"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="M31" s="91" t="s">
+      <c r="M31" s="90" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4582,7 +4643,7 @@
       </c>
       <c r="G32" s="16">
         <f t="shared" si="0"/>
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H32" s="29">
         <v>0</v>
@@ -4590,12 +4651,12 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91" t="s">
+      <c r="J32" s="88"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="M32" s="94" t="s">
+      <c r="M32" s="93" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4620,7 +4681,7 @@
       </c>
       <c r="G33" s="16">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H33" s="29">
         <v>0</v>
@@ -4628,12 +4689,12 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="91" t="s">
+      <c r="J33" s="88"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="M33" s="91" t="s">
+      <c r="M33" s="90" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4658,7 +4719,7 @@
       </c>
       <c r="G34" s="16">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H34" s="29">
         <v>0</v>
@@ -4666,12 +4727,12 @@
       <c r="I34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="89"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="88"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M34" s="91" t="s">
+      <c r="M34" s="90" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4696,22 +4757,22 @@
       </c>
       <c r="G35" s="16">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="H35" s="29">
         <v>0</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="72">
         <v>32</v>
       </c>
-      <c r="J35" s="89" t="s">
-        <v>322</v>
-      </c>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91" t="s">
+      <c r="J35" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="K35" s="89"/>
+      <c r="L35" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="M35" s="91" t="s">
+      <c r="M35" s="90" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4736,7 +4797,7 @@
       </c>
       <c r="G36" s="16">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H36" s="29">
         <v>0</v>
@@ -4744,12 +4805,12 @@
       <c r="I36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="89"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="91" t="s">
+      <c r="J36" s="88"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="M36" s="91" t="s">
+      <c r="M36" s="90" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4774,7 +4835,7 @@
       </c>
       <c r="G37" s="16">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H37" s="29">
         <v>0</v>
@@ -4782,12 +4843,12 @@
       <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="89"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="91" t="s">
+      <c r="J37" s="88"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="M37" s="91" t="s">
+      <c r="M37" s="90" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4812,7 +4873,7 @@
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H38" s="29">
         <v>0</v>
@@ -4820,12 +4881,12 @@
       <c r="I38" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="91" t="s">
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="M38" s="91" t="s">
+      <c r="M38" s="90" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4850,7 +4911,7 @@
       </c>
       <c r="G39" s="16">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H39" s="29">
         <v>0</v>
@@ -4858,12 +4919,12 @@
       <c r="I39" s="3">
         <v>0</v>
       </c>
-      <c r="J39" s="89"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="91" t="s">
+      <c r="J39" s="88"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="M39" s="91" t="s">
+      <c r="M39" s="90" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4888,7 +4949,7 @@
       </c>
       <c r="G40" s="16">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H40" s="29">
         <v>0</v>
@@ -4896,12 +4957,12 @@
       <c r="I40" s="3">
         <v>0</v>
       </c>
-      <c r="J40" s="89"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="91" t="s">
+      <c r="J40" s="88"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="M40" s="91" t="s">
+      <c r="M40" s="90" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4926,7 +4987,7 @@
       </c>
       <c r="G41" s="16">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H41" s="29">
         <v>0</v>
@@ -4934,12 +4995,12 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="89"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="91" t="s">
+      <c r="J41" s="88"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="M41" s="91" t="s">
+      <c r="M41" s="90" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4964,26 +5025,26 @@
       </c>
       <c r="G42" s="16">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H42" s="29">
         <v>0</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="72">
         <v>41</v>
       </c>
-      <c r="J42" s="89" t="s">
-        <v>330</v>
-      </c>
-      <c r="K42" s="90"/>
-      <c r="L42" s="91" t="s">
+      <c r="J42" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" s="89"/>
+      <c r="L42" s="90" t="s">
         <v>236</v>
       </c>
-      <c r="M42" s="91" t="s">
+      <c r="M42" s="90" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>87607</v>
       </c>
@@ -5004,23 +5065,21 @@
       </c>
       <c r="G43" s="16">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H43" s="29">
         <v>0</v>
       </c>
-      <c r="I43" s="72">
-        <v>51</v>
-      </c>
-      <c r="J43" s="89" t="s">
+      <c r="I43" s="71"/>
+      <c r="J43" s="88" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" s="89"/>
+      <c r="L43" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="90"/>
-      <c r="L43" s="91" t="s">
+      <c r="M43" s="94" t="s">
         <v>239</v>
-      </c>
-      <c r="M43" s="95" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="41.25" x14ac:dyDescent="0.25">
@@ -5044,7 +5103,7 @@
       </c>
       <c r="G44" s="16">
         <f t="shared" si="0"/>
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H44" s="29">
         <v>0</v>
@@ -5052,13 +5111,13 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="89"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="91" t="s">
+      <c r="J44" s="88"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="M44" s="90" t="s">
         <v>241</v>
-      </c>
-      <c r="M44" s="91" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5082,20 +5141,22 @@
       </c>
       <c r="G45" s="16">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="H45" s="29">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="89"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="M45" s="96" t="s">
+      <c r="I45" s="24">
+        <v>53</v>
+      </c>
+      <c r="J45" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" s="89"/>
+      <c r="L45" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="M45" s="95" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5120,7 +5181,7 @@
       </c>
       <c r="G46" s="16">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="H46" s="29">
         <v>0</v>
@@ -5128,12 +5189,12 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="89"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="91" t="s">
+      <c r="J46" s="88"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M46" s="96" t="s">
+      <c r="M46" s="95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5144,7 +5205,7 @@
       <c r="B47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="28" t="s">
@@ -5158,7 +5219,7 @@
       </c>
       <c r="G47" s="16">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="H47" s="29">
         <v>0</v>
@@ -5166,16 +5227,16 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="89"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="91" t="s">
+      <c r="J47" s="88"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M47" s="96" t="s">
+      <c r="M47" s="95" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>87631</v>
       </c>
@@ -5196,7 +5257,7 @@
       </c>
       <c r="G48" s="16">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="H48" s="29">
         <v>0</v>
@@ -5204,13 +5265,13 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="89"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="91" t="s">
+      <c r="J48" s="88"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="M48" s="95" t="s">
         <v>244</v>
-      </c>
-      <c r="M48" s="96" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5234,23 +5295,23 @@
       </c>
       <c r="G49" s="16">
         <f t="shared" si="0"/>
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H49" s="29">
         <v>0</v>
       </c>
-      <c r="I49" s="73">
+      <c r="I49" s="72">
         <v>23</v>
       </c>
-      <c r="J49" s="89" t="s">
-        <v>338</v>
-      </c>
-      <c r="K49" s="90"/>
-      <c r="L49" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="M49" s="96" t="s">
-        <v>246</v>
+      <c r="J49" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" s="89"/>
+      <c r="L49" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="M49" s="95" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5274,7 +5335,7 @@
       </c>
       <c r="G50" s="16">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="H50" s="29">
         <v>0</v>
@@ -5282,13 +5343,13 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
-      <c r="J50" s="89"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M50" s="96" t="s">
-        <v>240</v>
+      <c r="J50" s="88"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="M50" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5312,7 +5373,7 @@
       </c>
       <c r="G51" s="16">
         <f t="shared" si="0"/>
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="H51" s="29">
         <v>0</v>
@@ -5320,13 +5381,13 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="89"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="M51" s="96" t="s">
-        <v>240</v>
+      <c r="J51" s="88"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="M51" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5350,7 +5411,7 @@
       </c>
       <c r="G52" s="16">
         <f t="shared" si="0"/>
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="H52" s="29">
         <v>0</v>
@@ -5358,13 +5419,13 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="89"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="M52" s="96" t="s">
-        <v>240</v>
+      <c r="J52" s="88"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -5388,7 +5449,7 @@
       </c>
       <c r="G53" s="16">
         <f t="shared" si="0"/>
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="H53" s="29">
         <v>0</v>
@@ -5396,51 +5457,51 @@
       <c r="I53" s="3">
         <v>0</v>
       </c>
-      <c r="J53" s="89"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="97" t="s">
+      <c r="J53" s="88"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="M53" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="M53" s="91" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="54" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <v>87548</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="35" t="s">
+      <c r="C54" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="31">
         <v>3</v>
       </c>
       <c r="G54" s="16">
         <f t="shared" si="0"/>
-        <v>586</v>
-      </c>
-      <c r="H54" s="36">
+        <v>595</v>
+      </c>
+      <c r="H54" s="35">
         <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="98"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="100" t="s">
+      <c r="J54" s="97"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="M54" s="90" t="s">
         <v>252</v>
-      </c>
-      <c r="M54" s="91" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -5464,7 +5525,7 @@
       </c>
       <c r="G55" s="16">
         <f t="shared" si="0"/>
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H55" s="29">
         <v>2</v>
@@ -5472,12 +5533,12 @@
       <c r="I55" s="3">
         <v>0</v>
       </c>
-      <c r="J55" s="89"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="M55" s="96" t="s">
+      <c r="J55" s="88"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="M55" s="95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5502,7 +5563,7 @@
       </c>
       <c r="G56" s="16">
         <f t="shared" si="0"/>
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="H56" s="29">
         <v>0</v>
@@ -5510,12 +5571,12 @@
       <c r="I56" s="3">
         <v>0</v>
       </c>
-      <c r="J56" s="89"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="91" t="s">
-        <v>255</v>
-      </c>
-      <c r="M56" s="96" t="s">
+      <c r="J56" s="88"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="M56" s="95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5540,7 +5601,7 @@
       </c>
       <c r="G57" s="16">
         <f t="shared" si="0"/>
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="H57" s="29">
         <v>0</v>
@@ -5548,13 +5609,13 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="89"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M57" s="91" t="s">
-        <v>240</v>
+      <c r="J57" s="88"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M57" s="90" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5578,7 +5639,7 @@
       </c>
       <c r="G58" s="16">
         <f t="shared" si="0"/>
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="H58" s="29">
         <v>0</v>
@@ -5586,13 +5647,13 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="89"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M58" s="91" t="s">
-        <v>240</v>
+      <c r="J58" s="88"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M58" s="90" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5616,7 +5677,7 @@
       </c>
       <c r="G59" s="16">
         <f t="shared" si="0"/>
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="H59" s="29">
         <v>0</v>
@@ -5624,12 +5685,12 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="89"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="91" t="s">
+      <c r="J59" s="88"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M59" s="91" t="s">
+      <c r="M59" s="90" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5654,23 +5715,23 @@
       </c>
       <c r="G60" s="16">
         <f t="shared" si="0"/>
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="H60" s="29">
         <v>0</v>
       </c>
       <c r="I60" s="72">
-        <v>8</v>
-      </c>
-      <c r="J60" s="89" t="s">
-        <v>329</v>
-      </c>
-      <c r="K60" s="90"/>
-      <c r="L60" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="M60" s="96" t="s">
-        <v>240</v>
+        <v>217</v>
+      </c>
+      <c r="J60" s="88" t="s">
+        <v>348</v>
+      </c>
+      <c r="K60" s="89"/>
+      <c r="L60" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="M60" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5694,7 +5755,7 @@
       </c>
       <c r="G61" s="16">
         <f t="shared" si="0"/>
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="H61" s="29">
         <v>0</v>
@@ -5702,13 +5763,13 @@
       <c r="I61" s="3">
         <v>0</v>
       </c>
-      <c r="J61" s="89"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M61" s="96" t="s">
-        <v>240</v>
+      <c r="J61" s="88"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M61" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5732,7 +5793,7 @@
       </c>
       <c r="G62" s="16">
         <f t="shared" si="0"/>
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="H62" s="29">
         <v>0</v>
@@ -5740,13 +5801,13 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="89"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M62" s="96" t="s">
-        <v>240</v>
+      <c r="J62" s="88"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M62" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5770,7 +5831,7 @@
       </c>
       <c r="G63" s="16">
         <f t="shared" si="0"/>
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="H63" s="29">
         <v>0</v>
@@ -5778,13 +5839,13 @@
       <c r="I63" s="3">
         <v>0</v>
       </c>
-      <c r="J63" s="89"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M63" s="96" t="s">
-        <v>240</v>
+      <c r="J63" s="88"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M63" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5808,7 +5869,7 @@
       </c>
       <c r="G64" s="16">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="H64" s="29">
         <v>0</v>
@@ -5816,12 +5877,12 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" s="89"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="91" t="s">
+      <c r="J64" s="88"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M64" s="96" t="s">
+      <c r="M64" s="95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5846,7 +5907,7 @@
       </c>
       <c r="G65" s="16">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="H65" s="29">
         <v>0</v>
@@ -5854,13 +5915,13 @@
       <c r="I65" s="3">
         <v>0</v>
       </c>
-      <c r="J65" s="89"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="91" t="s">
-        <v>257</v>
-      </c>
-      <c r="M65" s="96" t="s">
-        <v>240</v>
+      <c r="J65" s="88"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="M65" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5884,7 +5945,7 @@
       </c>
       <c r="G66" s="16">
         <f t="shared" si="0"/>
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="H66" s="29">
         <v>0</v>
@@ -5892,12 +5953,12 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="89"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="91" t="s">
+      <c r="J66" s="88"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="M66" s="96" t="s">
+      <c r="M66" s="95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5922,23 +5983,23 @@
       </c>
       <c r="G67" s="16">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="H67" s="29">
         <v>0</v>
       </c>
-      <c r="I67" s="30">
-        <v>92</v>
-      </c>
-      <c r="J67" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="K67" s="90"/>
-      <c r="L67" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="M67" s="91" t="s">
-        <v>258</v>
+      <c r="I67" s="72">
+        <v>52</v>
+      </c>
+      <c r="J67" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="K67" s="89"/>
+      <c r="L67" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="M67" s="90" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -5961,8 +6022,8 @@
         <v>2</v>
       </c>
       <c r="G68" s="16">
-        <f t="shared" ref="G68:G131" si="1">G67+F67</f>
-        <v>814</v>
+        <f t="shared" ref="G68:G131" si="1">G67+F67+H68</f>
+        <v>825</v>
       </c>
       <c r="H68" s="29">
         <v>0</v>
@@ -5970,13 +6031,13 @@
       <c r="I68" s="3">
         <v>0</v>
       </c>
-      <c r="J68" s="89"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="M68" s="96" t="s">
-        <v>240</v>
+      <c r="J68" s="88"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="M68" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6000,23 +6061,23 @@
       </c>
       <c r="G69" s="16">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="H69" s="29">
         <v>0</v>
       </c>
-      <c r="I69" s="73">
+      <c r="I69" s="72">
         <v>24</v>
       </c>
-      <c r="J69" s="89" t="s">
-        <v>325</v>
-      </c>
-      <c r="K69" s="90"/>
-      <c r="L69" s="101" t="s">
-        <v>260</v>
-      </c>
-      <c r="M69" s="96" t="s">
-        <v>245</v>
+      <c r="J69" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="K69" s="89"/>
+      <c r="L69" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="M69" s="95" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6040,7 +6101,7 @@
       </c>
       <c r="G70" s="16">
         <f t="shared" si="1"/>
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="H70" s="29">
         <v>0</v>
@@ -6048,13 +6109,13 @@
       <c r="I70" s="3">
         <v>0</v>
       </c>
-      <c r="J70" s="89"/>
-      <c r="K70" s="90"/>
-      <c r="L70" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="M70" s="96" t="s">
-        <v>245</v>
+      <c r="J70" s="88"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="M70" s="95" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6078,7 +6139,7 @@
       </c>
       <c r="G71" s="16">
         <f t="shared" si="1"/>
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="H71" s="29">
         <v>0</v>
@@ -6086,12 +6147,12 @@
       <c r="I71" s="3">
         <v>0</v>
       </c>
-      <c r="J71" s="89"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="M71" s="96" t="s">
+      <c r="J71" s="88"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="M71" s="95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6116,7 +6177,7 @@
       </c>
       <c r="G72" s="16">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="H72" s="29">
         <v>0</v>
@@ -6124,12 +6185,12 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="89"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="91" t="s">
+      <c r="J72" s="88"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M72" s="96" t="s">
+      <c r="M72" s="95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6154,23 +6215,23 @@
       </c>
       <c r="G73" s="16">
         <f t="shared" si="1"/>
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="H73" s="29">
         <v>0</v>
       </c>
-      <c r="I73" s="73">
+      <c r="I73" s="72">
         <v>25</v>
       </c>
-      <c r="J73" s="89" t="s">
-        <v>337</v>
-      </c>
-      <c r="K73" s="90"/>
-      <c r="L73" s="101" t="s">
+      <c r="J73" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="K73" s="89"/>
+      <c r="L73" s="100" t="s">
+        <v>262</v>
+      </c>
+      <c r="M73" s="100" t="s">
         <v>263</v>
-      </c>
-      <c r="M73" s="101" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6194,7 +6255,7 @@
       </c>
       <c r="G74" s="16">
         <f t="shared" si="1"/>
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="H74" s="29">
         <v>0</v>
@@ -6202,13 +6263,13 @@
       <c r="I74" s="3">
         <v>0</v>
       </c>
-      <c r="J74" s="89"/>
-      <c r="K74" s="90"/>
-      <c r="L74" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M74" s="96" t="s">
-        <v>240</v>
+      <c r="J74" s="88"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M74" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6232,7 +6293,7 @@
       </c>
       <c r="G75" s="16">
         <f t="shared" si="1"/>
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="H75" s="29">
         <v>0</v>
@@ -6240,16 +6301,16 @@
       <c r="I75" s="3">
         <v>0</v>
       </c>
-      <c r="J75" s="89"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="M75" s="96" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J75" s="88"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="M75" s="95" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>87524</v>
       </c>
@@ -6270,7 +6331,7 @@
       </c>
       <c r="G76" s="16">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="H76" s="29">
         <v>0</v>
@@ -6278,13 +6339,13 @@
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="89"/>
-      <c r="K76" s="90"/>
-      <c r="L76" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="M76" s="96" t="s">
-        <v>240</v>
+      <c r="J76" s="88"/>
+      <c r="K76" s="89"/>
+      <c r="L76" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="M76" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6308,7 +6369,7 @@
       </c>
       <c r="G77" s="16">
         <f t="shared" si="1"/>
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="H77" s="29">
         <v>0</v>
@@ -6316,13 +6377,13 @@
       <c r="I77" s="3">
         <v>0</v>
       </c>
-      <c r="J77" s="89"/>
-      <c r="K77" s="90"/>
-      <c r="L77" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="M77" s="96" t="s">
-        <v>240</v>
+      <c r="J77" s="88"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="M77" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6346,7 +6407,7 @@
       </c>
       <c r="G78" s="16">
         <f t="shared" si="1"/>
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="H78" s="29">
         <v>0</v>
@@ -6354,13 +6415,13 @@
       <c r="I78" s="3">
         <v>0</v>
       </c>
-      <c r="J78" s="89"/>
-      <c r="K78" s="90"/>
-      <c r="L78" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="M78" s="96" t="s">
-        <v>240</v>
+      <c r="J78" s="88"/>
+      <c r="K78" s="89"/>
+      <c r="L78" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="M78" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6384,7 +6445,7 @@
       </c>
       <c r="G79" s="16">
         <f t="shared" si="1"/>
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="H79" s="29">
         <v>0</v>
@@ -6392,13 +6453,13 @@
       <c r="I79" s="3">
         <v>0</v>
       </c>
-      <c r="J79" s="89"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="M79" s="96" t="s">
-        <v>240</v>
+      <c r="J79" s="88"/>
+      <c r="K79" s="89"/>
+      <c r="L79" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="M79" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6422,7 +6483,7 @@
       </c>
       <c r="G80" s="16">
         <f t="shared" si="1"/>
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="H80" s="29">
         <v>0</v>
@@ -6430,13 +6491,13 @@
       <c r="I80" s="3">
         <v>0</v>
       </c>
-      <c r="J80" s="89"/>
-      <c r="K80" s="90"/>
-      <c r="L80" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="M80" s="96" t="s">
-        <v>240</v>
+      <c r="J80" s="88"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="M80" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6460,7 +6521,7 @@
       </c>
       <c r="G81" s="16">
         <f t="shared" si="1"/>
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="H81" s="29">
         <v>0</v>
@@ -6468,13 +6529,13 @@
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="89"/>
-      <c r="K81" s="90"/>
-      <c r="L81" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="M81" s="96" t="s">
-        <v>240</v>
+      <c r="J81" s="88"/>
+      <c r="K81" s="89"/>
+      <c r="L81" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="M81" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6498,7 +6559,7 @@
       </c>
       <c r="G82" s="16">
         <f t="shared" si="1"/>
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="H82" s="29">
         <v>0</v>
@@ -6506,12 +6567,12 @@
       <c r="I82" s="3">
         <v>0</v>
       </c>
-      <c r="J82" s="89"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="M82" s="96" t="s">
+      <c r="J82" s="88"/>
+      <c r="K82" s="89"/>
+      <c r="L82" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="M82" s="95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6536,23 +6597,23 @@
       </c>
       <c r="G83" s="16">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="H83" s="29">
         <v>0</v>
       </c>
-      <c r="I83" s="73">
+      <c r="I83" s="72">
         <v>26</v>
       </c>
-      <c r="J83" s="89" t="s">
-        <v>336</v>
-      </c>
-      <c r="K83" s="90"/>
-      <c r="L83" s="91" t="s">
+      <c r="J83" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="K83" s="89"/>
+      <c r="L83" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="M83" s="90" t="s">
         <v>273</v>
-      </c>
-      <c r="M83" s="91" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6576,7 +6637,7 @@
       </c>
       <c r="G84" s="16">
         <f t="shared" si="1"/>
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="H84" s="29">
         <v>0</v>
@@ -6584,13 +6645,13 @@
       <c r="I84" s="3">
         <v>0</v>
       </c>
-      <c r="J84" s="89"/>
-      <c r="K84" s="90"/>
-      <c r="L84" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="M84" s="96" t="s">
-        <v>240</v>
+      <c r="J84" s="88"/>
+      <c r="K84" s="89"/>
+      <c r="L84" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="M84" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6614,7 +6675,7 @@
       </c>
       <c r="G85" s="16">
         <f t="shared" si="1"/>
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="H85" s="29">
         <v>0</v>
@@ -6622,13 +6683,13 @@
       <c r="I85" s="3">
         <v>0</v>
       </c>
-      <c r="J85" s="89"/>
-      <c r="K85" s="90"/>
-      <c r="L85" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="M85" s="96" t="s">
-        <v>240</v>
+      <c r="J85" s="88"/>
+      <c r="K85" s="89"/>
+      <c r="L85" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="M85" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6652,7 +6713,7 @@
       </c>
       <c r="G86" s="16">
         <f t="shared" si="1"/>
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="H86" s="29">
         <v>0</v>
@@ -6660,17 +6721,17 @@
       <c r="I86" s="3">
         <v>0</v>
       </c>
-      <c r="J86" s="89"/>
-      <c r="K86" s="90"/>
-      <c r="L86" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="M86" s="96" t="s">
-        <v>240</v>
+      <c r="J86" s="88"/>
+      <c r="K86" s="89"/>
+      <c r="L86" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="M86" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="37">
+      <c r="A87" s="36">
         <v>87590</v>
       </c>
       <c r="B87" s="26" t="s">
@@ -6690,7 +6751,7 @@
       </c>
       <c r="G87" s="16">
         <f t="shared" si="1"/>
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="H87" s="29">
         <v>0</v>
@@ -6698,17 +6759,17 @@
       <c r="I87" s="3">
         <v>0</v>
       </c>
-      <c r="J87" s="89"/>
-      <c r="K87" s="90"/>
-      <c r="L87" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="M87" s="96" t="s">
-        <v>240</v>
+      <c r="J87" s="88"/>
+      <c r="K87" s="89"/>
+      <c r="L87" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="M87" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="37">
+      <c r="A88" s="36">
         <v>87591</v>
       </c>
       <c r="B88" s="26" t="s">
@@ -6728,7 +6789,7 @@
       </c>
       <c r="G88" s="16">
         <f t="shared" si="1"/>
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="H88" s="29">
         <v>0</v>
@@ -6736,17 +6797,17 @@
       <c r="I88" s="3">
         <v>0</v>
       </c>
-      <c r="J88" s="89"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="M88" s="96" t="s">
-        <v>240</v>
+      <c r="J88" s="88"/>
+      <c r="K88" s="89"/>
+      <c r="L88" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="M88" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="37">
+      <c r="A89" s="36">
         <v>87552</v>
       </c>
       <c r="B89" s="26" t="s">
@@ -6766,27 +6827,27 @@
       </c>
       <c r="G89" s="16">
         <f t="shared" si="1"/>
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="H89" s="29">
         <v>0</v>
       </c>
-      <c r="I89" s="30">
+      <c r="I89" s="72">
         <v>27</v>
       </c>
-      <c r="J89" s="89" t="s">
-        <v>326</v>
-      </c>
-      <c r="K89" s="90"/>
-      <c r="L89" s="101" t="s">
-        <v>280</v>
-      </c>
-      <c r="M89" s="101" t="s">
-        <v>280</v>
+      <c r="J89" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="K89" s="89"/>
+      <c r="L89" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="M89" s="100" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="37">
+      <c r="A90" s="36">
         <v>87555</v>
       </c>
       <c r="B90" s="26" t="s">
@@ -6806,27 +6867,27 @@
       </c>
       <c r="G90" s="16">
         <f t="shared" si="1"/>
-        <v>1060</v>
+        <v>1071</v>
       </c>
       <c r="H90" s="29">
         <v>0</v>
       </c>
-      <c r="I90" s="30">
+      <c r="I90" s="72">
         <v>28</v>
       </c>
-      <c r="J90" s="89" t="s">
-        <v>327</v>
-      </c>
-      <c r="K90" s="90"/>
-      <c r="L90" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="M90" s="96" t="s">
-        <v>240</v>
+      <c r="J90" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="K90" s="89"/>
+      <c r="L90" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="M90" s="95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="37">
+      <c r="A91" s="36">
         <v>87557</v>
       </c>
       <c r="B91" s="26" t="s">
@@ -6846,7 +6907,7 @@
       </c>
       <c r="G91" s="16">
         <f t="shared" si="1"/>
-        <v>1066</v>
+        <v>1077</v>
       </c>
       <c r="H91" s="29">
         <v>0</v>
@@ -6854,17 +6915,17 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="89"/>
-      <c r="K91" s="90"/>
-      <c r="L91" s="91" t="s">
+      <c r="J91" s="88"/>
+      <c r="K91" s="89"/>
+      <c r="L91" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="M91" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="M91" s="102" t="s">
-        <v>283</v>
-      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="37">
+      <c r="A92" s="36">
         <v>87559</v>
       </c>
       <c r="B92" s="26" t="s">
@@ -6884,7 +6945,7 @@
       </c>
       <c r="G92" s="16">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>1083</v>
       </c>
       <c r="H92" s="29">
         <v>2</v>
@@ -6892,17 +6953,17 @@
       <c r="I92" s="3">
         <v>0</v>
       </c>
-      <c r="J92" s="89"/>
-      <c r="K92" s="90"/>
-      <c r="L92" s="91" t="s">
+      <c r="J92" s="88"/>
+      <c r="K92" s="89"/>
+      <c r="L92" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M92" s="91" t="s">
+      <c r="M92" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="37">
+      <c r="A93" s="36">
         <v>87601</v>
       </c>
       <c r="B93" s="26" t="s">
@@ -6922,27 +6983,27 @@
       </c>
       <c r="G93" s="16">
         <f t="shared" si="1"/>
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="H93" s="29">
         <v>0</v>
       </c>
-      <c r="I93" s="30">
+      <c r="I93" s="72">
         <v>29</v>
       </c>
-      <c r="J93" s="89" t="s">
-        <v>328</v>
-      </c>
-      <c r="K93" s="90"/>
-      <c r="L93" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="M93" s="103" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="37">
+      <c r="J93" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="K93" s="89"/>
+      <c r="L93" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="M93" s="102" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="36">
         <v>87602</v>
       </c>
       <c r="B94" s="26" t="s">
@@ -6962,27 +7023,27 @@
       </c>
       <c r="G94" s="16">
         <f t="shared" si="1"/>
-        <v>1083</v>
+        <v>1096</v>
       </c>
       <c r="H94" s="29">
         <v>0</v>
       </c>
-      <c r="I94" s="30">
+      <c r="I94" s="72">
         <v>210</v>
       </c>
-      <c r="J94" s="89" t="s">
-        <v>335</v>
-      </c>
-      <c r="K94" s="90"/>
-      <c r="L94" s="91" t="s">
+      <c r="J94" s="88" t="s">
+        <v>332</v>
+      </c>
+      <c r="K94" s="89"/>
+      <c r="L94" s="88" t="s">
+        <v>349</v>
+      </c>
+      <c r="M94" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M94" s="91" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="95" spans="1:13" ht="116.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="37">
+      <c r="A95" s="36">
         <v>87645</v>
       </c>
       <c r="B95" s="26" t="s">
@@ -7002,7 +7063,7 @@
       </c>
       <c r="G95" s="16">
         <f t="shared" si="1"/>
-        <v>1086</v>
+        <v>1099</v>
       </c>
       <c r="H95" s="29">
         <v>0</v>
@@ -7010,17 +7071,17 @@
       <c r="I95" s="3">
         <v>0</v>
       </c>
-      <c r="J95" s="89"/>
-      <c r="K95" s="90"/>
-      <c r="L95" s="101" t="s">
+      <c r="J95" s="88"/>
+      <c r="K95" s="89"/>
+      <c r="L95" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="M95" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="M95" s="91" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="37">
+      <c r="A96" s="36">
         <v>87646</v>
       </c>
       <c r="B96" s="26" t="s">
@@ -7040,7 +7101,7 @@
       </c>
       <c r="G96" s="16">
         <f t="shared" si="1"/>
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="H96" s="29">
         <v>0</v>
@@ -7048,17 +7109,17 @@
       <c r="I96" s="3">
         <v>0</v>
       </c>
-      <c r="J96" s="89"/>
-      <c r="K96" s="90"/>
-      <c r="L96" s="91" t="s">
+      <c r="J96" s="88"/>
+      <c r="K96" s="89"/>
+      <c r="L96" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M96" s="91" t="s">
+      <c r="M96" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="37">
+      <c r="A97" s="36">
         <v>87647</v>
       </c>
       <c r="B97" s="26" t="s">
@@ -7078,7 +7139,7 @@
       </c>
       <c r="G97" s="16">
         <f t="shared" si="1"/>
-        <v>1092</v>
+        <v>1105</v>
       </c>
       <c r="H97" s="29">
         <v>0</v>
@@ -7086,17 +7147,17 @@
       <c r="I97" s="3">
         <v>0</v>
       </c>
-      <c r="J97" s="89"/>
-      <c r="K97" s="90"/>
-      <c r="L97" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M97" s="91" t="s">
-        <v>240</v>
+      <c r="J97" s="88"/>
+      <c r="K97" s="89"/>
+      <c r="L97" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M97" s="90" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="37">
+      <c r="A98" s="36">
         <v>87648</v>
       </c>
       <c r="B98" s="26" t="s">
@@ -7116,7 +7177,7 @@
       </c>
       <c r="G98" s="16">
         <f t="shared" si="1"/>
-        <v>1094</v>
+        <v>1107</v>
       </c>
       <c r="H98" s="29">
         <v>0</v>
@@ -7124,17 +7185,17 @@
       <c r="I98" s="3">
         <v>0</v>
       </c>
-      <c r="J98" s="89"/>
-      <c r="K98" s="90"/>
-      <c r="L98" s="101" t="s">
-        <v>286</v>
-      </c>
-      <c r="M98" s="101" t="s">
-        <v>286</v>
+      <c r="J98" s="88"/>
+      <c r="K98" s="89"/>
+      <c r="L98" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="M98" s="100" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="37">
+      <c r="A99" s="36">
         <v>87635</v>
       </c>
       <c r="B99" s="26" t="s">
@@ -7154,7 +7215,7 @@
       </c>
       <c r="G99" s="16">
         <f t="shared" si="1"/>
-        <v>1096</v>
+        <v>1109</v>
       </c>
       <c r="H99" s="29">
         <v>0</v>
@@ -7162,17 +7223,17 @@
       <c r="I99" s="3">
         <v>0</v>
       </c>
-      <c r="J99" s="89"/>
-      <c r="K99" s="90"/>
-      <c r="L99" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="M99" s="91" t="s">
-        <v>245</v>
+      <c r="J99" s="88"/>
+      <c r="K99" s="89"/>
+      <c r="L99" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="M99" s="90" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="37">
+      <c r="A100" s="36">
         <v>87636</v>
       </c>
       <c r="B100" s="26" t="s">
@@ -7192,7 +7253,7 @@
       </c>
       <c r="G100" s="16">
         <f t="shared" si="1"/>
-        <v>1097</v>
+        <v>1110</v>
       </c>
       <c r="H100" s="29">
         <v>0</v>
@@ -7200,17 +7261,17 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="89"/>
-      <c r="K100" s="90"/>
-      <c r="L100" s="91" t="s">
+      <c r="J100" s="88"/>
+      <c r="K100" s="89"/>
+      <c r="L100" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M100" s="91" t="s">
+      <c r="M100" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="37">
+      <c r="A101" s="36">
         <v>87637</v>
       </c>
       <c r="B101" s="26" t="s">
@@ -7230,7 +7291,7 @@
       </c>
       <c r="G101" s="16">
         <f t="shared" si="1"/>
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="H101" s="29">
         <v>0</v>
@@ -7238,17 +7299,17 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="89"/>
-      <c r="K101" s="90"/>
-      <c r="L101" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="M101" s="91" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="37">
+      <c r="J101" s="88"/>
+      <c r="K101" s="89"/>
+      <c r="L101" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="M101" s="90" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="36">
         <v>87608</v>
       </c>
       <c r="B102" s="26" t="s">
@@ -7268,25 +7329,27 @@
       </c>
       <c r="G102" s="16">
         <f t="shared" si="1"/>
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="H102" s="29">
         <v>0</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="89"/>
-      <c r="K102" s="90"/>
-      <c r="L102" s="91" t="s">
-        <v>287</v>
-      </c>
-      <c r="M102" s="91" t="s">
-        <v>287</v>
+      <c r="I102" s="121">
+        <v>51</v>
+      </c>
+      <c r="J102" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="K102" s="89"/>
+      <c r="L102" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="M102" s="90" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="37">
+      <c r="A103" s="36">
         <v>87605</v>
       </c>
       <c r="B103" s="26" t="s">
@@ -7306,7 +7369,7 @@
       </c>
       <c r="G103" s="16">
         <f t="shared" si="1"/>
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="H103" s="29">
         <v>0</v>
@@ -7314,17 +7377,17 @@
       <c r="I103" s="3">
         <v>0</v>
       </c>
-      <c r="J103" s="89"/>
-      <c r="K103" s="90"/>
-      <c r="L103" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M103" s="91" t="s">
-        <v>240</v>
+      <c r="J103" s="88"/>
+      <c r="K103" s="89"/>
+      <c r="L103" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M103" s="90" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="37">
+      <c r="A104" s="36">
         <v>87693</v>
       </c>
       <c r="B104" s="26" t="s">
@@ -7344,7 +7407,7 @@
       </c>
       <c r="G104" s="16">
         <f t="shared" si="1"/>
-        <v>1136</v>
+        <v>1149</v>
       </c>
       <c r="H104" s="29">
         <v>0</v>
@@ -7352,17 +7415,17 @@
       <c r="I104" s="3">
         <v>0</v>
       </c>
-      <c r="J104" s="89"/>
-      <c r="K104" s="90"/>
-      <c r="L104" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="M104" s="91" t="s">
-        <v>245</v>
+      <c r="J104" s="88"/>
+      <c r="K104" s="89"/>
+      <c r="L104" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="M104" s="90" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="37">
+      <c r="A105" s="36">
         <v>87694</v>
       </c>
       <c r="B105" s="26" t="s">
@@ -7382,7 +7445,7 @@
       </c>
       <c r="G105" s="16">
         <f t="shared" si="1"/>
-        <v>1137</v>
+        <v>1150</v>
       </c>
       <c r="H105" s="29">
         <v>0</v>
@@ -7390,17 +7453,17 @@
       <c r="I105" s="3">
         <v>0</v>
       </c>
-      <c r="J105" s="89"/>
-      <c r="K105" s="90"/>
-      <c r="L105" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="M105" s="91" t="s">
-        <v>245</v>
+      <c r="J105" s="88"/>
+      <c r="K105" s="89"/>
+      <c r="L105" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="M105" s="90" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="37">
+      <c r="A106" s="36">
         <v>87651</v>
       </c>
       <c r="B106" s="26" t="s">
@@ -7420,7 +7483,7 @@
       </c>
       <c r="G106" s="16">
         <f t="shared" si="1"/>
-        <v>1138</v>
+        <v>1151</v>
       </c>
       <c r="H106" s="29">
         <v>0</v>
@@ -7428,17 +7491,17 @@
       <c r="I106" s="3">
         <v>0</v>
       </c>
-      <c r="J106" s="89"/>
-      <c r="K106" s="90"/>
-      <c r="L106" s="91" t="s">
+      <c r="J106" s="88"/>
+      <c r="K106" s="89"/>
+      <c r="L106" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M106" s="91" t="s">
+      <c r="M106" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="37">
+      <c r="A107" s="36">
         <v>87652</v>
       </c>
       <c r="B107" s="26" t="s">
@@ -7458,7 +7521,7 @@
       </c>
       <c r="G107" s="16">
         <f t="shared" si="1"/>
-        <v>1142</v>
+        <v>1155</v>
       </c>
       <c r="H107" s="29">
         <v>0</v>
@@ -7466,17 +7529,17 @@
       <c r="I107" s="3">
         <v>0</v>
       </c>
-      <c r="J107" s="89"/>
-      <c r="K107" s="90"/>
-      <c r="L107" s="91" t="s">
+      <c r="J107" s="88"/>
+      <c r="K107" s="89"/>
+      <c r="L107" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M107" s="91" t="s">
+      <c r="M107" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="37">
+      <c r="A108" s="36">
         <v>87653</v>
       </c>
       <c r="B108" s="26" t="s">
@@ -7496,7 +7559,7 @@
       </c>
       <c r="G108" s="16">
         <f t="shared" si="1"/>
-        <v>1146</v>
+        <v>1159</v>
       </c>
       <c r="H108" s="29">
         <v>0</v>
@@ -7504,17 +7567,17 @@
       <c r="I108" s="3">
         <v>0</v>
       </c>
-      <c r="J108" s="89"/>
-      <c r="K108" s="90"/>
-      <c r="L108" s="91" t="s">
+      <c r="J108" s="88"/>
+      <c r="K108" s="89"/>
+      <c r="L108" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M108" s="91" t="s">
+      <c r="M108" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="37">
+      <c r="A109" s="36">
         <v>87712</v>
       </c>
       <c r="B109" s="26" t="s">
@@ -7534,27 +7597,27 @@
       </c>
       <c r="G109" s="16">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>1163</v>
       </c>
       <c r="H109" s="29">
         <v>0</v>
       </c>
-      <c r="I109" s="30">
-        <v>31</v>
-      </c>
-      <c r="J109" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K109" s="90"/>
-      <c r="L109" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="M109" s="91" t="s">
-        <v>288</v>
+      <c r="I109" s="72">
+        <v>220</v>
+      </c>
+      <c r="J109" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K109" s="89"/>
+      <c r="L109" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="M109" s="90" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="37">
+      <c r="A110" s="36">
         <v>87713</v>
       </c>
       <c r="B110" s="26" t="s">
@@ -7574,27 +7637,27 @@
       </c>
       <c r="G110" s="16">
         <f t="shared" si="1"/>
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="H110" s="29">
         <v>0</v>
       </c>
-      <c r="I110" s="30">
-        <v>31</v>
-      </c>
-      <c r="J110" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K110" s="90"/>
-      <c r="L110" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="M110" s="91" t="s">
-        <v>288</v>
+      <c r="I110" s="72">
+        <v>220</v>
+      </c>
+      <c r="J110" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K110" s="89"/>
+      <c r="L110" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="M110" s="90" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="37">
+      <c r="A111" s="36">
         <v>87714</v>
       </c>
       <c r="B111" s="26" t="s">
@@ -7614,27 +7677,27 @@
       </c>
       <c r="G111" s="16">
         <f t="shared" si="1"/>
-        <v>1152</v>
+        <v>1165</v>
       </c>
       <c r="H111" s="29">
         <v>0</v>
       </c>
-      <c r="I111" s="30">
-        <v>31</v>
-      </c>
-      <c r="J111" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K111" s="90"/>
-      <c r="L111" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="M111" s="91" t="s">
-        <v>288</v>
+      <c r="I111" s="72">
+        <v>220</v>
+      </c>
+      <c r="J111" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K111" s="89"/>
+      <c r="L111" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="M111" s="90" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="37">
+      <c r="A112" s="36">
         <v>87715</v>
       </c>
       <c r="B112" s="26" t="s">
@@ -7654,7 +7717,7 @@
       </c>
       <c r="G112" s="16">
         <f t="shared" si="1"/>
-        <v>1153</v>
+        <v>1166</v>
       </c>
       <c r="H112" s="29">
         <v>0</v>
@@ -7662,17 +7725,17 @@
       <c r="I112" s="3">
         <v>0</v>
       </c>
-      <c r="J112" s="89"/>
-      <c r="K112" s="90"/>
-      <c r="L112" s="91" t="s">
-        <v>289</v>
-      </c>
-      <c r="M112" s="91" t="s">
-        <v>289</v>
+      <c r="J112" s="88"/>
+      <c r="K112" s="89"/>
+      <c r="L112" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="M112" s="90" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="37">
+      <c r="A113" s="36">
         <v>87716</v>
       </c>
       <c r="B113" s="26" t="s">
@@ -7692,7 +7755,7 @@
       </c>
       <c r="G113" s="16">
         <f t="shared" si="1"/>
-        <v>1193</v>
+        <v>1206</v>
       </c>
       <c r="H113" s="29">
         <v>0</v>
@@ -7700,13 +7763,13 @@
       <c r="I113" s="3">
         <v>0</v>
       </c>
-      <c r="J113" s="89"/>
-      <c r="K113" s="90"/>
-      <c r="L113" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M113" s="91" t="s">
-        <v>240</v>
+      <c r="J113" s="88"/>
+      <c r="K113" s="89"/>
+      <c r="L113" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M113" s="90" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="41.25" x14ac:dyDescent="0.25">
@@ -7730,7 +7793,7 @@
       </c>
       <c r="G114" s="16">
         <f t="shared" si="1"/>
-        <v>1233</v>
+        <v>1246</v>
       </c>
       <c r="H114" s="29">
         <v>0</v>
@@ -7738,99 +7801,99 @@
       <c r="I114" s="3">
         <v>0</v>
       </c>
-      <c r="J114" s="89"/>
-      <c r="K114" s="90"/>
-      <c r="L114" s="91" t="s">
+      <c r="J114" s="88"/>
+      <c r="K114" s="89"/>
+      <c r="L114" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="M114" s="86" t="s">
+      <c r="M114" s="85" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="38">
+      <c r="A115" s="37">
         <v>89003</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C115" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="41" t="s">
+      <c r="C115" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="40" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="8">
         <v>0</v>
       </c>
-      <c r="F115" s="38">
+      <c r="F115" s="37">
         <v>128</v>
       </c>
       <c r="G115" s="16">
         <f t="shared" si="1"/>
-        <v>1361</v>
-      </c>
-      <c r="H115" s="42">
+        <v>1374</v>
+      </c>
+      <c r="H115" s="41">
         <v>0</v>
       </c>
       <c r="I115" s="3">
         <v>0</v>
       </c>
-      <c r="J115" s="104"/>
-      <c r="K115" s="105"/>
-      <c r="L115" s="106" t="s">
+      <c r="J115" s="103"/>
+      <c r="K115" s="104"/>
+      <c r="L115" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="M115" s="86" t="s">
-        <v>290</v>
+      <c r="M115" s="85" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="43">
+      <c r="A116" s="42">
         <v>87720</v>
       </c>
-      <c r="B116" s="44" t="s">
+      <c r="B116" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C116" s="45" t="s">
+      <c r="C116" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D116" s="46" t="s">
+      <c r="D116" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="8">
         <v>0</v>
       </c>
-      <c r="F116" s="43">
+      <c r="F116" s="42">
         <v>20</v>
       </c>
       <c r="G116" s="16">
         <f t="shared" si="1"/>
-        <v>1489</v>
-      </c>
-      <c r="H116" s="47">
+        <v>1502</v>
+      </c>
+      <c r="H116" s="46">
         <v>0</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
       </c>
-      <c r="J116" s="107"/>
-      <c r="K116" s="108"/>
-      <c r="L116" s="109" t="s">
-        <v>240</v>
-      </c>
-      <c r="M116" s="109" t="s">
-        <v>240</v>
+      <c r="J116" s="106"/>
+      <c r="K116" s="107"/>
+      <c r="L116" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="M116" s="108" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="37">
+      <c r="A117" s="36">
         <v>89149</v>
       </c>
       <c r="B117" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D117" s="28" t="s">
@@ -7844,7 +7907,7 @@
       </c>
       <c r="G117" s="16">
         <f t="shared" si="1"/>
-        <v>1509</v>
+        <v>1522</v>
       </c>
       <c r="H117" s="29">
         <v>0</v>
@@ -7852,23 +7915,23 @@
       <c r="I117" s="3">
         <v>0</v>
       </c>
-      <c r="J117" s="89"/>
-      <c r="K117" s="90"/>
-      <c r="L117" s="91" t="s">
+      <c r="J117" s="88"/>
+      <c r="K117" s="89"/>
+      <c r="L117" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="M117" s="90" t="s">
         <v>291</v>
       </c>
-      <c r="M117" s="91" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="37">
+      <c r="A118" s="36">
         <v>89150</v>
       </c>
       <c r="B118" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D118" s="28" t="s">
@@ -7882,7 +7945,7 @@
       </c>
       <c r="G118" s="16">
         <f t="shared" si="1"/>
-        <v>1512</v>
+        <v>1525</v>
       </c>
       <c r="H118" s="29">
         <v>0</v>
@@ -7890,23 +7953,23 @@
       <c r="I118" s="3">
         <v>0</v>
       </c>
-      <c r="J118" s="89"/>
-      <c r="K118" s="90"/>
-      <c r="L118" s="91" t="s">
-        <v>293</v>
-      </c>
-      <c r="M118" s="91" t="s">
-        <v>293</v>
+      <c r="J118" s="88"/>
+      <c r="K118" s="89"/>
+      <c r="L118" s="90" t="s">
+        <v>292</v>
+      </c>
+      <c r="M118" s="90" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="37">
+      <c r="A119" s="36">
         <v>89151</v>
       </c>
       <c r="B119" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D119" s="28" t="s">
@@ -7920,7 +7983,7 @@
       </c>
       <c r="G119" s="16">
         <f t="shared" si="1"/>
-        <v>1544</v>
+        <v>1557</v>
       </c>
       <c r="H119" s="29">
         <v>0</v>
@@ -7928,23 +7991,23 @@
       <c r="I119" s="3">
         <v>0</v>
       </c>
-      <c r="J119" s="89"/>
-      <c r="K119" s="90"/>
-      <c r="L119" s="91" t="s">
-        <v>294</v>
-      </c>
-      <c r="M119" s="91" t="s">
-        <v>294</v>
+      <c r="J119" s="88"/>
+      <c r="K119" s="89"/>
+      <c r="L119" s="90" t="s">
+        <v>293</v>
+      </c>
+      <c r="M119" s="90" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="37">
+      <c r="A120" s="36">
         <v>89153</v>
       </c>
       <c r="B120" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D120" s="28" t="s">
@@ -7958,7 +8021,7 @@
       </c>
       <c r="G120" s="16">
         <f t="shared" si="1"/>
-        <v>1547</v>
+        <v>1560</v>
       </c>
       <c r="H120" s="29">
         <v>0</v>
@@ -7966,23 +8029,23 @@
       <c r="I120" s="3">
         <v>0</v>
       </c>
-      <c r="J120" s="89"/>
-      <c r="K120" s="90"/>
-      <c r="L120" s="91" t="s">
-        <v>295</v>
-      </c>
-      <c r="M120" s="91" t="s">
-        <v>295</v>
+      <c r="J120" s="88"/>
+      <c r="K120" s="89"/>
+      <c r="L120" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="M120" s="90" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="37">
+      <c r="A121" s="36">
         <v>89152</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D121" s="28" t="s">
@@ -7996,7 +8059,7 @@
       </c>
       <c r="G121" s="16">
         <f t="shared" si="1"/>
-        <v>1548</v>
+        <v>1561</v>
       </c>
       <c r="H121" s="29">
         <v>0</v>
@@ -8004,23 +8067,23 @@
       <c r="I121" s="3">
         <v>0</v>
       </c>
-      <c r="J121" s="89"/>
-      <c r="K121" s="90"/>
-      <c r="L121" s="91" t="s">
-        <v>296</v>
-      </c>
-      <c r="M121" s="91" t="s">
-        <v>296</v>
+      <c r="J121" s="88"/>
+      <c r="K121" s="89"/>
+      <c r="L121" s="90" t="s">
+        <v>295</v>
+      </c>
+      <c r="M121" s="90" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="37">
+      <c r="A122" s="36">
         <v>87853</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D122" s="28" t="s">
@@ -8034,7 +8097,7 @@
       </c>
       <c r="G122" s="16">
         <f t="shared" si="1"/>
-        <v>1588</v>
+        <v>1601</v>
       </c>
       <c r="H122" s="29">
         <v>0</v>
@@ -8042,23 +8105,23 @@
       <c r="I122" s="3">
         <v>0</v>
       </c>
-      <c r="J122" s="89"/>
-      <c r="K122" s="90"/>
-      <c r="L122" s="91" t="s">
+      <c r="J122" s="88"/>
+      <c r="K122" s="89"/>
+      <c r="L122" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M122" s="109" t="s">
-        <v>297</v>
+      <c r="M122" s="108" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="37">
+      <c r="A123" s="36">
         <v>87854</v>
       </c>
       <c r="B123" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D123" s="28" t="s">
@@ -8072,7 +8135,7 @@
       </c>
       <c r="G123" s="16">
         <f t="shared" si="1"/>
-        <v>1590</v>
+        <v>1603</v>
       </c>
       <c r="H123" s="29">
         <v>0</v>
@@ -8080,23 +8143,23 @@
       <c r="I123" s="3">
         <v>0</v>
       </c>
-      <c r="J123" s="89"/>
-      <c r="K123" s="90"/>
-      <c r="L123" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M123" s="109" t="s">
-        <v>298</v>
+      <c r="J123" s="88"/>
+      <c r="K123" s="89"/>
+      <c r="L123" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M123" s="108" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="37">
+      <c r="A124" s="36">
         <v>87855</v>
       </c>
       <c r="B124" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D124" s="28" t="s">
@@ -8110,7 +8173,7 @@
       </c>
       <c r="G124" s="16">
         <f t="shared" si="1"/>
-        <v>1605</v>
+        <v>1618</v>
       </c>
       <c r="H124" s="29">
         <v>0</v>
@@ -8118,23 +8181,23 @@
       <c r="I124" s="3">
         <v>0</v>
       </c>
-      <c r="J124" s="89"/>
-      <c r="K124" s="90"/>
-      <c r="L124" s="91" t="s">
+      <c r="J124" s="88"/>
+      <c r="K124" s="89"/>
+      <c r="L124" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="M124" s="109" t="s">
-        <v>297</v>
+      <c r="M124" s="108" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="37">
+      <c r="A125" s="36">
         <v>87856</v>
       </c>
       <c r="B125" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D125" s="28" t="s">
@@ -8148,33 +8211,33 @@
       </c>
       <c r="G125" s="16">
         <f t="shared" si="1"/>
-        <v>1609</v>
+        <v>1622</v>
       </c>
       <c r="H125" s="29">
         <v>0</v>
       </c>
-      <c r="I125" s="30">
-        <v>31</v>
-      </c>
-      <c r="J125" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K125" s="90"/>
-      <c r="L125" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M125" s="109" t="s">
-        <v>298</v>
+      <c r="I125" s="72">
+        <v>220</v>
+      </c>
+      <c r="J125" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K125" s="89"/>
+      <c r="L125" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M125" s="108" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="37">
+      <c r="A126" s="36">
         <v>87857</v>
       </c>
       <c r="B126" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D126" s="28" t="s">
@@ -8188,33 +8251,33 @@
       </c>
       <c r="G126" s="16">
         <f t="shared" si="1"/>
-        <v>1610</v>
+        <v>1623</v>
       </c>
       <c r="H126" s="29">
         <v>0</v>
       </c>
-      <c r="I126" s="30">
-        <v>31</v>
-      </c>
-      <c r="J126" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K126" s="90"/>
-      <c r="L126" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M126" s="109" t="s">
-        <v>298</v>
+      <c r="I126" s="72">
+        <v>220</v>
+      </c>
+      <c r="J126" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K126" s="89"/>
+      <c r="L126" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M126" s="108" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="37">
+      <c r="A127" s="36">
         <v>87858</v>
       </c>
       <c r="B127" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D127" s="28" t="s">
@@ -8228,33 +8291,33 @@
       </c>
       <c r="G127" s="16">
         <f t="shared" si="1"/>
-        <v>1611</v>
+        <v>1624</v>
       </c>
       <c r="H127" s="29">
         <v>0</v>
       </c>
-      <c r="I127" s="30">
-        <v>31</v>
-      </c>
-      <c r="J127" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K127" s="90"/>
-      <c r="L127" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="M127" s="109" t="s">
-        <v>298</v>
+      <c r="I127" s="72">
+        <v>220</v>
+      </c>
+      <c r="J127" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K127" s="89"/>
+      <c r="L127" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="M127" s="108" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="37">
+      <c r="A128" s="36">
         <v>87859</v>
       </c>
       <c r="B128" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C128" s="31" t="s">
+      <c r="C128" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D128" s="28" t="s">
@@ -8268,103 +8331,103 @@
       </c>
       <c r="G128" s="16">
         <f t="shared" si="1"/>
-        <v>1612</v>
+        <v>1625</v>
       </c>
       <c r="H128" s="29">
         <v>0</v>
       </c>
-      <c r="I128" s="30">
-        <v>212</v>
-      </c>
-      <c r="J128" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="K128" s="90"/>
-      <c r="L128" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="M128" s="109" t="s">
-        <v>240</v>
+      <c r="I128" s="72">
+        <v>221</v>
+      </c>
+      <c r="J128" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="K128" s="89"/>
+      <c r="L128" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="M128" s="108" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="48">
+      <c r="A129" s="47">
         <v>87860</v>
       </c>
-      <c r="B129" s="49" t="s">
+      <c r="B129" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C129" s="50" t="s">
+      <c r="C129" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E129" s="8">
         <v>0</v>
       </c>
-      <c r="F129" s="52">
+      <c r="F129" s="51">
         <v>4</v>
       </c>
       <c r="G129" s="16">
         <f t="shared" si="1"/>
-        <v>1613</v>
-      </c>
-      <c r="H129" s="53">
+        <v>1626</v>
+      </c>
+      <c r="H129" s="52">
         <v>0</v>
       </c>
       <c r="I129" s="3">
         <v>0</v>
       </c>
-      <c r="J129" s="110"/>
-      <c r="K129" s="111"/>
-      <c r="L129" s="109" t="s">
+      <c r="J129" s="109"/>
+      <c r="K129" s="110"/>
+      <c r="L129" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="M129" s="109" t="s">
-        <v>297</v>
+      <c r="M129" s="108" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="54">
+      <c r="A130" s="53">
         <v>87800</v>
       </c>
-      <c r="B130" s="44" t="s">
+      <c r="B130" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C130" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="46" t="s">
+      <c r="C130" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="45" t="s">
         <v>14</v>
       </c>
       <c r="E130" s="8">
         <v>0</v>
       </c>
-      <c r="F130" s="43">
+      <c r="F130" s="42">
         <v>11</v>
       </c>
       <c r="G130" s="16">
         <f t="shared" si="1"/>
-        <v>1617</v>
-      </c>
-      <c r="H130" s="47">
+        <v>1630</v>
+      </c>
+      <c r="H130" s="46">
         <v>0</v>
       </c>
       <c r="I130" s="3">
         <v>0</v>
       </c>
-      <c r="J130" s="107"/>
-      <c r="K130" s="108"/>
-      <c r="L130" s="112" t="s">
+      <c r="J130" s="106"/>
+      <c r="K130" s="107"/>
+      <c r="L130" s="111" t="s">
+        <v>299</v>
+      </c>
+      <c r="M130" s="112" t="s">
         <v>300</v>
       </c>
-      <c r="M130" s="113" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="56">
+    </row>
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="55">
         <v>87801</v>
       </c>
       <c r="B131" s="26" t="s">
@@ -8384,7 +8447,7 @@
       </c>
       <c r="G131" s="16">
         <f t="shared" si="1"/>
-        <v>1628</v>
+        <v>1641</v>
       </c>
       <c r="H131" s="29">
         <v>0</v>
@@ -8392,17 +8455,17 @@
       <c r="I131" s="3">
         <v>0</v>
       </c>
-      <c r="J131" s="89"/>
-      <c r="K131" s="90"/>
-      <c r="L131" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="M131" s="114" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="56">
+      <c r="J131" s="88"/>
+      <c r="K131" s="89"/>
+      <c r="L131" s="90" t="s">
+        <v>301</v>
+      </c>
+      <c r="M131" s="113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="55">
         <v>87802</v>
       </c>
       <c r="B132" s="26" t="s">
@@ -8421,28 +8484,28 @@
         <v>1</v>
       </c>
       <c r="G132" s="16">
-        <f t="shared" ref="G132:G150" si="2">G131+F131</f>
-        <v>1629</v>
+        <f t="shared" ref="G132:G150" si="2">G131+F131+H132</f>
+        <v>1642</v>
       </c>
       <c r="H132" s="29">
         <v>0</v>
       </c>
-      <c r="I132" s="30">
-        <v>31</v>
-      </c>
-      <c r="J132" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K132" s="90"/>
-      <c r="L132" s="91" t="s">
-        <v>303</v>
-      </c>
-      <c r="M132" s="114" t="s">
-        <v>240</v>
+      <c r="I132" s="72">
+        <v>220</v>
+      </c>
+      <c r="J132" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K132" s="89"/>
+      <c r="L132" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="M132" s="113" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="56">
+      <c r="A133" s="55">
         <v>87803</v>
       </c>
       <c r="B133" s="26" t="s">
@@ -8462,27 +8525,27 @@
       </c>
       <c r="G133" s="16">
         <f t="shared" si="2"/>
-        <v>1630</v>
+        <v>1643</v>
       </c>
       <c r="H133" s="29">
         <v>0</v>
       </c>
-      <c r="I133" s="30">
-        <v>31</v>
-      </c>
-      <c r="J133" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K133" s="90"/>
-      <c r="L133" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="M133" s="114" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="56">
+      <c r="I133" s="72">
+        <v>220</v>
+      </c>
+      <c r="J133" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K133" s="89"/>
+      <c r="L133" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="M133" s="113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="55">
         <v>87804</v>
       </c>
       <c r="B134" s="26" t="s">
@@ -8502,34 +8565,34 @@
       </c>
       <c r="G134" s="16">
         <f t="shared" si="2"/>
-        <v>1631</v>
+        <v>1644</v>
       </c>
       <c r="H134" s="29">
         <v>0</v>
       </c>
-      <c r="I134" s="30">
-        <v>31</v>
-      </c>
-      <c r="J134" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="K134" s="90"/>
-      <c r="L134" s="91" t="s">
-        <v>305</v>
-      </c>
-      <c r="M134" s="114" t="s">
-        <v>240</v>
+      <c r="I134" s="72">
+        <v>220</v>
+      </c>
+      <c r="J134" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="K134" s="89"/>
+      <c r="L134" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="M134" s="113" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="57">
+      <c r="A135" s="56">
         <v>87805</v>
       </c>
-      <c r="B135" s="58" t="s">
+      <c r="B135" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C135" s="59"/>
-      <c r="D135" s="60" t="s">
+      <c r="C135" s="58"/>
+      <c r="D135" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="8">
@@ -8540,7 +8603,7 @@
       </c>
       <c r="G135" s="16">
         <f t="shared" si="2"/>
-        <v>1632</v>
+        <v>1645</v>
       </c>
       <c r="H135" s="17">
         <v>0</v>
@@ -8548,24 +8611,24 @@
       <c r="I135" s="3">
         <v>0</v>
       </c>
-      <c r="J135" s="115"/>
-      <c r="K135" s="90"/>
-      <c r="L135" s="91" t="s">
-        <v>306</v>
-      </c>
-      <c r="M135" s="91" t="s">
-        <v>306</v>
+      <c r="J135" s="114"/>
+      <c r="K135" s="89"/>
+      <c r="L135" s="90" t="s">
+        <v>305</v>
+      </c>
+      <c r="M135" s="90" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="57">
+      <c r="A136" s="56">
         <v>87806</v>
       </c>
-      <c r="B136" s="58" t="s">
+      <c r="B136" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="59"/>
-      <c r="D136" s="60" t="s">
+      <c r="C136" s="58"/>
+      <c r="D136" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="8">
@@ -8576,7 +8639,7 @@
       </c>
       <c r="G136" s="16">
         <f t="shared" si="2"/>
-        <v>1633</v>
+        <v>1646</v>
       </c>
       <c r="H136" s="17">
         <v>0</v>
@@ -8584,24 +8647,24 @@
       <c r="I136" s="3">
         <v>0</v>
       </c>
-      <c r="J136" s="115"/>
-      <c r="K136" s="90"/>
-      <c r="L136" s="91" t="s">
-        <v>307</v>
-      </c>
-      <c r="M136" s="91" t="s">
-        <v>307</v>
+      <c r="J136" s="114"/>
+      <c r="K136" s="89"/>
+      <c r="L136" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="M136" s="90" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="57">
+      <c r="A137" s="56">
         <v>87807</v>
       </c>
-      <c r="B137" s="58" t="s">
+      <c r="B137" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="C137" s="59"/>
-      <c r="D137" s="60" t="s">
+      <c r="C137" s="58"/>
+      <c r="D137" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E137" s="8">
@@ -8612,7 +8675,7 @@
       </c>
       <c r="G137" s="16">
         <f t="shared" si="2"/>
-        <v>1634</v>
+        <v>1647</v>
       </c>
       <c r="H137" s="17">
         <v>0</v>
@@ -8620,24 +8683,24 @@
       <c r="I137" s="3">
         <v>0</v>
       </c>
-      <c r="J137" s="115"/>
-      <c r="K137" s="90"/>
-      <c r="L137" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="M137" s="91" t="s">
-        <v>308</v>
+      <c r="J137" s="114"/>
+      <c r="K137" s="89"/>
+      <c r="L137" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="M137" s="90" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="57">
+      <c r="A138" s="56">
         <v>87808</v>
       </c>
-      <c r="B138" s="58" t="s">
+      <c r="B138" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="C138" s="59"/>
-      <c r="D138" s="60" t="s">
+      <c r="C138" s="58"/>
+      <c r="D138" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E138" s="8">
@@ -8648,7 +8711,7 @@
       </c>
       <c r="G138" s="16">
         <f t="shared" si="2"/>
-        <v>1635</v>
+        <v>1648</v>
       </c>
       <c r="H138" s="17">
         <v>0</v>
@@ -8656,24 +8719,24 @@
       <c r="I138" s="3">
         <v>0</v>
       </c>
-      <c r="J138" s="115"/>
-      <c r="K138" s="90"/>
-      <c r="L138" s="91" t="s">
-        <v>309</v>
-      </c>
-      <c r="M138" s="91" t="s">
-        <v>309</v>
+      <c r="J138" s="114"/>
+      <c r="K138" s="89"/>
+      <c r="L138" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="M138" s="90" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="57">
+      <c r="A139" s="56">
         <v>87809</v>
       </c>
-      <c r="B139" s="58" t="s">
+      <c r="B139" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C139" s="59"/>
-      <c r="D139" s="60" t="s">
+      <c r="C139" s="58"/>
+      <c r="D139" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="8">
@@ -8684,7 +8747,7 @@
       </c>
       <c r="G139" s="16">
         <f t="shared" si="2"/>
-        <v>1639</v>
+        <v>1652</v>
       </c>
       <c r="H139" s="17">
         <v>0</v>
@@ -8692,24 +8755,24 @@
       <c r="I139" s="3">
         <v>0</v>
       </c>
-      <c r="J139" s="115"/>
-      <c r="K139" s="90"/>
-      <c r="L139" s="91" t="s">
-        <v>310</v>
-      </c>
-      <c r="M139" s="91" t="s">
-        <v>310</v>
+      <c r="J139" s="114"/>
+      <c r="K139" s="89"/>
+      <c r="L139" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="M139" s="90" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="57">
+      <c r="A140" s="56">
         <v>87810</v>
       </c>
-      <c r="B140" s="58" t="s">
+      <c r="B140" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C140" s="59"/>
-      <c r="D140" s="60" t="s">
+      <c r="C140" s="58"/>
+      <c r="D140" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="8">
@@ -8720,7 +8783,7 @@
       </c>
       <c r="G140" s="16">
         <f t="shared" si="2"/>
-        <v>1640</v>
+        <v>1653</v>
       </c>
       <c r="H140" s="17">
         <v>0</v>
@@ -8728,24 +8791,24 @@
       <c r="I140" s="3">
         <v>0</v>
       </c>
-      <c r="J140" s="115"/>
-      <c r="K140" s="90"/>
-      <c r="L140" s="91" t="s">
-        <v>311</v>
-      </c>
-      <c r="M140" s="91" t="s">
-        <v>311</v>
+      <c r="J140" s="114"/>
+      <c r="K140" s="89"/>
+      <c r="L140" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="M140" s="90" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="57">
+      <c r="A141" s="56">
         <v>87811</v>
       </c>
-      <c r="B141" s="58" t="s">
+      <c r="B141" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="C141" s="59"/>
-      <c r="D141" s="60" t="s">
+      <c r="C141" s="58"/>
+      <c r="D141" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="8">
@@ -8756,7 +8819,7 @@
       </c>
       <c r="G141" s="16">
         <f t="shared" si="2"/>
-        <v>1641</v>
+        <v>1654</v>
       </c>
       <c r="H141" s="17">
         <v>0</v>
@@ -8764,24 +8827,24 @@
       <c r="I141" s="3">
         <v>0</v>
       </c>
-      <c r="J141" s="115"/>
-      <c r="K141" s="90"/>
-      <c r="L141" s="91" t="s">
-        <v>312</v>
-      </c>
-      <c r="M141" s="91" t="s">
-        <v>312</v>
+      <c r="J141" s="114"/>
+      <c r="K141" s="89"/>
+      <c r="L141" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="M141" s="90" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="57">
+      <c r="A142" s="56">
         <v>87812</v>
       </c>
-      <c r="B142" s="58" t="s">
+      <c r="B142" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="C142" s="59"/>
-      <c r="D142" s="60" t="s">
+      <c r="C142" s="58"/>
+      <c r="D142" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="8">
@@ -8792,7 +8855,7 @@
       </c>
       <c r="G142" s="16">
         <f t="shared" si="2"/>
-        <v>1642</v>
+        <v>1655</v>
       </c>
       <c r="H142" s="17">
         <v>0</v>
@@ -8800,24 +8863,24 @@
       <c r="I142" s="3">
         <v>0</v>
       </c>
-      <c r="J142" s="115"/>
-      <c r="K142" s="90"/>
-      <c r="L142" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="M142" s="91" t="s">
-        <v>313</v>
+      <c r="J142" s="114"/>
+      <c r="K142" s="89"/>
+      <c r="L142" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="M142" s="90" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A143" s="57">
+      <c r="A143" s="56">
         <v>87813</v>
       </c>
-      <c r="B143" s="58" t="s">
+      <c r="B143" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C143" s="59"/>
-      <c r="D143" s="60" t="s">
+      <c r="C143" s="58"/>
+      <c r="D143" s="59" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="8">
@@ -8828,7 +8891,7 @@
       </c>
       <c r="G143" s="16">
         <f t="shared" si="2"/>
-        <v>1684</v>
+        <v>1697</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -8836,24 +8899,24 @@
       <c r="I143" s="3">
         <v>0</v>
       </c>
-      <c r="J143" s="115"/>
-      <c r="K143" s="90"/>
-      <c r="L143" s="91" t="s">
-        <v>314</v>
-      </c>
-      <c r="M143" s="91" t="s">
-        <v>314</v>
+      <c r="J143" s="114"/>
+      <c r="K143" s="89"/>
+      <c r="L143" s="90" t="s">
+        <v>313</v>
+      </c>
+      <c r="M143" s="90" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="57">
+      <c r="A144" s="56">
         <v>87814</v>
       </c>
-      <c r="B144" s="58" t="s">
+      <c r="B144" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="C144" s="59"/>
-      <c r="D144" s="60" t="s">
+      <c r="C144" s="58"/>
+      <c r="D144" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="8">
@@ -8864,7 +8927,7 @@
       </c>
       <c r="G144" s="16">
         <f t="shared" si="2"/>
-        <v>1689</v>
+        <v>1702</v>
       </c>
       <c r="H144" s="17">
         <v>0</v>
@@ -8872,24 +8935,24 @@
       <c r="I144" s="3">
         <v>0</v>
       </c>
-      <c r="J144" s="115"/>
-      <c r="K144" s="90"/>
-      <c r="L144" s="91" t="s">
-        <v>315</v>
-      </c>
-      <c r="M144" s="91" t="s">
-        <v>315</v>
+      <c r="J144" s="114"/>
+      <c r="K144" s="89"/>
+      <c r="L144" s="90" t="s">
+        <v>314</v>
+      </c>
+      <c r="M144" s="90" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="57">
+      <c r="A145" s="56">
         <v>87815</v>
       </c>
-      <c r="B145" s="58" t="s">
+      <c r="B145" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C145" s="59"/>
-      <c r="D145" s="60" t="s">
+      <c r="C145" s="58"/>
+      <c r="D145" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E145" s="8">
@@ -8900,7 +8963,7 @@
       </c>
       <c r="G145" s="16">
         <f t="shared" si="2"/>
-        <v>1690</v>
+        <v>1703</v>
       </c>
       <c r="H145" s="17">
         <v>0</v>
@@ -8908,24 +8971,24 @@
       <c r="I145" s="3">
         <v>0</v>
       </c>
-      <c r="J145" s="115"/>
-      <c r="K145" s="90"/>
-      <c r="L145" s="91" t="s">
-        <v>316</v>
-      </c>
-      <c r="M145" s="91" t="s">
-        <v>316</v>
+      <c r="J145" s="114"/>
+      <c r="K145" s="89"/>
+      <c r="L145" s="90" t="s">
+        <v>315</v>
+      </c>
+      <c r="M145" s="90" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="57">
+      <c r="A146" s="56">
         <v>87816</v>
       </c>
-      <c r="B146" s="58" t="s">
+      <c r="B146" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C146" s="59"/>
-      <c r="D146" s="60" t="s">
+      <c r="C146" s="58"/>
+      <c r="D146" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E146" s="8">
@@ -8936,7 +8999,7 @@
       </c>
       <c r="G146" s="16">
         <f t="shared" si="2"/>
-        <v>1699</v>
+        <v>1712</v>
       </c>
       <c r="H146" s="17">
         <v>0</v>
@@ -8944,24 +9007,24 @@
       <c r="I146" s="3">
         <v>0</v>
       </c>
-      <c r="J146" s="115"/>
-      <c r="K146" s="90"/>
-      <c r="L146" s="91" t="s">
-        <v>317</v>
-      </c>
-      <c r="M146" s="91" t="s">
-        <v>317</v>
+      <c r="J146" s="114"/>
+      <c r="K146" s="89"/>
+      <c r="L146" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="M146" s="90" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="57">
+      <c r="A147" s="56">
         <v>87817</v>
       </c>
-      <c r="B147" s="58" t="s">
+      <c r="B147" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C147" s="59"/>
-      <c r="D147" s="60" t="s">
+      <c r="C147" s="58"/>
+      <c r="D147" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E147" s="8">
@@ -8972,7 +9035,7 @@
       </c>
       <c r="G147" s="16">
         <f t="shared" si="2"/>
-        <v>1703</v>
+        <v>1716</v>
       </c>
       <c r="H147" s="17">
         <v>0</v>
@@ -8980,24 +9043,24 @@
       <c r="I147" s="3">
         <v>0</v>
       </c>
-      <c r="J147" s="115"/>
-      <c r="K147" s="90"/>
-      <c r="L147" s="91" t="s">
-        <v>318</v>
-      </c>
-      <c r="M147" s="91" t="s">
-        <v>318</v>
+      <c r="J147" s="114"/>
+      <c r="K147" s="89"/>
+      <c r="L147" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="M147" s="90" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="57">
+      <c r="A148" s="56">
         <v>87818</v>
       </c>
-      <c r="B148" s="58" t="s">
+      <c r="B148" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C148" s="59"/>
-      <c r="D148" s="60" t="s">
+      <c r="C148" s="58"/>
+      <c r="D148" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="8">
@@ -9008,7 +9071,7 @@
       </c>
       <c r="G148" s="16">
         <f t="shared" si="2"/>
-        <v>1704</v>
+        <v>1717</v>
       </c>
       <c r="H148" s="17">
         <v>0</v>
@@ -9016,35 +9079,35 @@
       <c r="I148" s="3">
         <v>0</v>
       </c>
-      <c r="J148" s="115"/>
-      <c r="K148" s="90"/>
-      <c r="L148" s="91" t="s">
-        <v>319</v>
-      </c>
-      <c r="M148" s="91" t="s">
-        <v>319</v>
+      <c r="J148" s="114"/>
+      <c r="K148" s="89"/>
+      <c r="L148" s="90" t="s">
+        <v>318</v>
+      </c>
+      <c r="M148" s="90" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="61">
+      <c r="A149" s="60">
         <v>87819</v>
       </c>
-      <c r="B149" s="62" t="s">
+      <c r="B149" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C149" s="63"/>
-      <c r="D149" s="64" t="s">
+      <c r="C149" s="62"/>
+      <c r="D149" s="63" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="8">
         <v>0</v>
       </c>
-      <c r="F149" s="65">
+      <c r="F149" s="64">
         <v>1</v>
       </c>
       <c r="G149" s="16">
         <f t="shared" si="2"/>
-        <v>1705</v>
+        <v>1718</v>
       </c>
       <c r="H149" s="21">
         <v>0</v>
@@ -9052,182 +9115,182 @@
       <c r="I149" s="3">
         <v>0</v>
       </c>
-      <c r="J149" s="116"/>
-      <c r="K149" s="105"/>
-      <c r="L149" s="106" t="s">
-        <v>320</v>
-      </c>
-      <c r="M149" s="106" t="s">
-        <v>320</v>
+      <c r="J149" s="115"/>
+      <c r="K149" s="104"/>
+      <c r="L149" s="105" t="s">
+        <v>319</v>
+      </c>
+      <c r="M149" s="105" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="66" t="s">
+      <c r="A150" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="B150" s="67" t="s">
+      <c r="B150" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C150" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="68" t="s">
+      <c r="C150" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="67" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="8">
         <v>0</v>
       </c>
-      <c r="F150" s="66">
+      <c r="F150" s="65">
         <v>5</v>
       </c>
       <c r="G150" s="16">
         <f t="shared" si="2"/>
-        <v>1706</v>
-      </c>
-      <c r="H150" s="69">
+        <v>1719</v>
+      </c>
+      <c r="H150" s="68">
         <v>0</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
       </c>
-      <c r="J150" s="117"/>
-      <c r="K150" s="118"/>
-      <c r="L150" s="119" t="s">
-        <v>321</v>
-      </c>
-      <c r="M150" s="119" t="s">
-        <v>321</v>
+      <c r="J150" s="116"/>
+      <c r="K150" s="117"/>
+      <c r="L150" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="M150" s="118" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I151" s="74"/>
-      <c r="J151" s="120"/>
-      <c r="K151" s="120"/>
-      <c r="L151" s="120"/>
+      <c r="I151" s="73"/>
+      <c r="J151" s="119"/>
+      <c r="K151" s="119"/>
+      <c r="L151" s="119"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I152" s="74"/>
-      <c r="J152" s="120"/>
-      <c r="K152" s="120"/>
-      <c r="L152" s="120"/>
+      <c r="I152" s="73"/>
+      <c r="J152" s="119"/>
+      <c r="K152" s="119"/>
+      <c r="L152" s="119"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J153" s="120"/>
-      <c r="K153" s="120"/>
-      <c r="L153" s="120"/>
+      <c r="J153" s="119"/>
+      <c r="K153" s="119"/>
+      <c r="L153" s="119"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J154" s="120"/>
-      <c r="K154" s="120"/>
-      <c r="L154" s="120"/>
+      <c r="J154" s="119"/>
+      <c r="K154" s="119"/>
+      <c r="L154" s="119"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J155" s="120"/>
-      <c r="K155" s="120"/>
-      <c r="L155" s="120"/>
+      <c r="J155" s="119"/>
+      <c r="K155" s="119"/>
+      <c r="L155" s="119"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J156" s="120"/>
-      <c r="K156" s="120"/>
-      <c r="L156" s="120"/>
+      <c r="J156" s="119"/>
+      <c r="K156" s="119"/>
+      <c r="L156" s="119"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J157" s="120"/>
-      <c r="K157" s="120"/>
-      <c r="L157" s="120"/>
+      <c r="J157" s="119"/>
+      <c r="K157" s="119"/>
+      <c r="L157" s="119"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M157" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A2:A150 C130:C150">
-    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
-      <formula>XFC2="O"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="16" stopIfTrue="1">
       <formula>XFC2="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="17" stopIfTrue="1">
       <formula>XFC2="R"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
+      <formula>XFC2="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A86">
     <cfRule type="expression" dxfId="31" priority="38" stopIfTrue="1">
       <formula>XFC78="R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>#REF!="R"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>#REF!="R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>#REF!="R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
+      <formula>XFC78="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="36" stopIfTrue="1">
       <formula>XFC78="O"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
-      <formula>XFC78="S"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
       <formula>XFC78="R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="34" stopIfTrue="1">
+      <formula>XFC78="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>XFC78="O"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="37" stopIfTrue="1">
-      <formula>XFC78="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+      <formula>XFC3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>XFC3="R"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>XFC3="S"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>XFC3="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B150">
-    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
-      <formula>XFC130="O"</formula>
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+      <formula>XFC130="R"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="10" stopIfTrue="1">
       <formula>XFC130="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
-      <formula>XFC130="R"</formula>
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+      <formula>XFC130="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 B7:C59 B60:B121 B122:C129">
-    <cfRule type="expression" dxfId="16" priority="29" stopIfTrue="1">
-      <formula>XFC2="R"</formula>
+    <cfRule type="expression" dxfId="16" priority="27" stopIfTrue="1">
+      <formula>XFC2="O"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="28" stopIfTrue="1">
       <formula>XFC2="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="27" stopIfTrue="1">
-      <formula>XFC2="O"</formula>
+    <cfRule type="expression" dxfId="14" priority="29" stopIfTrue="1">
+      <formula>XFC2="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="expression" dxfId="13" priority="26" stopIfTrue="1">
-      <formula>A3="R"</formula>
+    <cfRule type="expression" dxfId="13" priority="24" stopIfTrue="1">
+      <formula>A3="O"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="25" stopIfTrue="1">
       <formula>A3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="24" stopIfTrue="1">
-      <formula>A3="O"</formula>
+    <cfRule type="expression" dxfId="11" priority="26" stopIfTrue="1">
+      <formula>A3="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C121">
-    <cfRule type="expression" dxfId="10" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
+      <formula>A60="R"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
       <formula>A60="S"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
-      <formula>A60="R"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>A60="O"</formula>
@@ -9242,28 +9305,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G150">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>XFC2="O"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>XFC2="R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>XFC2="S"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>XFC2="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I150">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>XFC2="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>XFC2="R"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>XFC2="S"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>XFC2="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9284,66 +9348,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="70" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="70" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -9352,4 +9416,116 @@
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92861D0C-E67C-412F-BA46-9F4C275F58E8}">
+  <dimension ref="H4:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="123" t="s">
+        <v>342</v>
+      </c>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+    </row>
+    <row r="5" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="122" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" s="122" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="122" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="122" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+    </row>
+    <row r="7" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+    </row>
+    <row r="8" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+    </row>
+    <row r="9" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+    </row>
+    <row r="10" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+    </row>
+    <row r="11" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+    </row>
+    <row r="12" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+    </row>
+    <row r="13" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+    </row>
+    <row r="14" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+    </row>
+    <row r="15" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+    </row>
+    <row r="16" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>